--- a/src/main/java/com/ivy/qa/testdata/data.xlsx
+++ b/src/main/java/com/ivy/qa/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AFE32-D8D6-40D4-B5AB-1FB3D08AEC62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3979AA7-B8FB-4268-8B75-7A060A49649C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,9 +444,6 @@
     <t>PayOut Structure</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -558,10 +555,17 @@
     <t>PARTYES</t>
   </si>
   <si>
-    <t>pp_preflop21,pp_stg2,pp_stg3,pp_stg4,pp_stg5,pp_stg6,pp_stg7,pp_stg8,pp_stg9,pp_stg10,pp_equalhands1,pp_equalhands2,pp_equalhands3,pp_equalhands4,pp_equalhands5,pp_equalhands6,pp_equalhands7,pp_equalhands8,pp_equalhands9,pp_equalhands10</t>
-  </si>
-  <si>
     <t>run tounry</t>
+  </si>
+  <si>
+    <t>pp_equalblinds1
+pp_equalblinds2
+pp_equalblinds3
+pp_equalblinds4
+pp_equalblinds5</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -660,11 +664,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,8 +953,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,13 +966,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,11 +987,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1008,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1100,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,7 +1111,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1217,7 +1221,7 @@
         <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1228,7 +1232,7 @@
         <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1239,7 +1243,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,18 +1252,18 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="10">
         <v>44328</v>
@@ -1270,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="7">
         <v>43916</v>
@@ -1282,20 +1286,20 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1304,10 +1308,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1487,7 @@
         <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1491,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1527,7 +1531,7 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1535,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1571,7 +1575,7 @@
         <v>119</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1579,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1600,7 +1604,7 @@
         <v>120</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1617,7 +1621,7 @@
         <v>121</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1628,7 +1632,7 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1639,7 +1643,7 @@
         <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1650,7 +1654,7 @@
         <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1658,7 +1662,7 @@
         <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1666,7 +1670,7 @@
         <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1674,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1682,7 +1686,7 @@
         <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1690,7 +1694,7 @@
         <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1698,7 +1702,7 @@
         <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1706,7 +1710,7 @@
         <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1714,7 +1718,7 @@
         <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.3">
@@ -1722,7 +1726,7 @@
         <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.3">
@@ -1730,7 +1734,7 @@
         <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.3">
@@ -1738,7 +1742,7 @@
         <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.3">
@@ -1917,13 +1921,13 @@
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
@@ -1967,13 +1971,13 @@
         <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
@@ -1996,13 +2000,13 @@
         <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -2022,13 +2026,13 @@
         <v>12</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -2042,11 +2046,11 @@
         <v>9</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -2060,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -2073,7 +2077,7 @@
         <v>64</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2086,7 +2090,7 @@
         <v>65</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -2099,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -2109,7 +2113,7 @@
         <v>67</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -2119,7 +2123,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2129,7 +2133,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -2139,7 +2143,7 @@
         <v>70</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -2149,7 +2153,7 @@
         <v>71</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2159,7 +2163,7 @@
         <v>72</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2169,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2179,7 +2183,7 @@
         <v>74</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2189,7 +2193,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2199,7 +2203,7 @@
         <v>76</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
